--- a/FCF/Costi/Derivati/FCF2 - Derivati IIfct.xlsx
+++ b/FCF/Costi/Derivati/FCF2 - Derivati IIfct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://picinformaticait-my.sharepoint.com/personal/mmenchicchi_pic-informatica_it1/Documents/Condivisione ENI PIC/RFCF/FCF2/Insert Into/Qvw e Excel Utili/Cartella Definitiva/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Costi\Derivati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{6F840479-0247-4BDB-B826-E4C196514FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61243B3E-0EBD-4F96-A07C-57B434D3DF39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A28D28-0FB9-4BD5-99DD-A29DD7583C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,18 +196,18 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -509,10 +509,10 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F22"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -526,7 +526,7 @@
     <col min="18" max="18" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -566,7 +566,7 @@
         <v>644312.72</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -608,7 +608,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -629,7 +629,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -692,7 +692,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -734,7 +734,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -755,7 +755,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -818,7 +818,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -838,7 +838,7 @@
         <v>14965158.039999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -858,7 +858,7 @@
         <v>-617981</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -878,7 +878,7 @@
         <v>8422947.3599999994</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -898,7 +898,7 @@
         <v>12022394</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -918,7 +918,7 @@
         <v>-2156323</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
         <v>16445841</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>20597084</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
         <v>-84012532</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
